--- a/test.xlsx
+++ b/test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -15,32 +15,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>0117120</t>
   </si>
   <si>
-    <t>69.0</t>
-  </si>
-  <si>
     <t>0317003</t>
   </si>
   <si>
-    <t>72.0</t>
-  </si>
-  <si>
     <t>0317081</t>
   </si>
   <si>
-    <t>45.0</t>
-  </si>
-  <si>
     <t>0317121</t>
   </si>
   <si>
-    <t>75.0</t>
-  </si>
-  <si>
     <t>0317122</t>
   </si>
   <si>
@@ -50,60 +38,36 @@
     <t>0352046</t>
   </si>
   <si>
-    <t>48.0</t>
-  </si>
-  <si>
     <t>0358029</t>
   </si>
   <si>
     <t>0417001</t>
   </si>
   <si>
-    <t>63.0</t>
-  </si>
-  <si>
     <t>0417003</t>
   </si>
   <si>
-    <t>81.0</t>
-  </si>
-  <si>
     <t>0417007</t>
   </si>
   <si>
     <t>0417010</t>
   </si>
   <si>
-    <t>60.0</t>
-  </si>
-  <si>
     <t>0417013</t>
   </si>
   <si>
     <t>0417016</t>
   </si>
   <si>
-    <t>78.0</t>
-  </si>
-  <si>
     <t>0417017</t>
   </si>
   <si>
-    <t>66.0</t>
-  </si>
-  <si>
     <t>0417018</t>
   </si>
   <si>
-    <t>57.0</t>
-  </si>
-  <si>
     <t>0417019</t>
   </si>
   <si>
-    <t>84.0</t>
-  </si>
-  <si>
     <t>0417020</t>
   </si>
   <si>
@@ -128,9 +92,6 @@
     <t>0417028</t>
   </si>
   <si>
-    <t>54.0</t>
-  </si>
-  <si>
     <t>0417029</t>
   </si>
   <si>
@@ -146,15 +107,9 @@
     <t>0417033</t>
   </si>
   <si>
-    <t>90.0</t>
-  </si>
-  <si>
     <t>0417034</t>
   </si>
   <si>
-    <t>87.0</t>
-  </si>
-  <si>
     <t>0417035</t>
   </si>
   <si>
@@ -162,9 +117,6 @@
   </si>
   <si>
     <t>0417039</t>
-  </si>
-  <si>
-    <t>93.0</t>
   </si>
   <si>
     <t>0417040</t>
@@ -659,664 +611,664 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" t="s">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" t="s">
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" t="s">
-        <v>24</v>
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" t="s">
-        <v>28</v>
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" t="s">
-        <v>22</v>
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" t="s">
-        <v>16</v>
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" t="s">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" t="s">
-        <v>24</v>
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" t="s">
-        <v>45</v>
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" t="s">
-        <v>22</v>
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>83</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>85</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71" t="s">
-        <v>45</v>
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>87</v>
-      </c>
-      <c r="B72" t="s">
-        <v>28</v>
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>88</v>
-      </c>
-      <c r="B73" t="s">
-        <v>28</v>
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>89</v>
-      </c>
-      <c r="B74" t="s">
-        <v>22</v>
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" t="s">
-        <v>7</v>
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>91</v>
-      </c>
-      <c r="B76" t="s">
-        <v>28</v>
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>92</v>
-      </c>
-      <c r="B77" t="s">
-        <v>45</v>
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>93</v>
-      </c>
-      <c r="B78" t="s">
-        <v>43</v>
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>94</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>95</v>
-      </c>
-      <c r="B80" t="s">
-        <v>24</v>
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>96</v>
-      </c>
-      <c r="B81" t="s">
-        <v>3</v>
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>97</v>
-      </c>
-      <c r="B82" t="s">
-        <v>28</v>
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>98</v>
-      </c>
-      <c r="B83" t="s">
-        <v>22</v>
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
